--- a/Stud_Details.xlsx
+++ b/Stud_Details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshya Sharma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshya Sharma\Desktop\Projects\Student-to-Abstract-Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Fathe's Name</t>
-  </si>
-  <si>
-    <t>Mothe's Name</t>
-  </si>
-  <si>
     <t>Lakshya Sharma</t>
   </si>
   <si>
@@ -81,6 +75,72 @@
   </si>
   <si>
     <t>Pranath Amma</t>
+  </si>
+  <si>
+    <t>Abhishek S</t>
+  </si>
+  <si>
+    <t>Mridul Tiwary</t>
+  </si>
+  <si>
+    <t>Jesuraja Bandekar</t>
+  </si>
+  <si>
+    <t>1MS16EC044</t>
+  </si>
+  <si>
+    <t>1MS16CS058</t>
+  </si>
+  <si>
+    <t>1MS16CS044</t>
+  </si>
+  <si>
+    <t>1MS16CS004</t>
+  </si>
+  <si>
+    <t>K Sidhartha Nambiar</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Surendran Nambiar</t>
+  </si>
+  <si>
+    <t>Surendran S</t>
+  </si>
+  <si>
+    <t>Abhish Tiwary</t>
+  </si>
+  <si>
+    <t>Bandekar Aunty</t>
+  </si>
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Mother's Name</t>
+  </si>
+  <si>
+    <t>Bandekar Uncle</t>
+  </si>
+  <si>
+    <t>Abhisha Tiwary</t>
+  </si>
+  <si>
+    <t>Surendra S</t>
+  </si>
+  <si>
+    <t>nambiar@gmail.com</t>
+  </si>
+  <si>
+    <t>abhsiehkman.s@gmail.com</t>
+  </si>
+  <si>
+    <t>tiwary.mridul@gmail.com</t>
+  </si>
+  <si>
+    <t>jesuraja@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
@@ -454,70 +514,178 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9741219832</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>8762919630</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1234567890</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>6789012345</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>9740929890</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>987654321</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Stud_Details.xlsx
+++ b/Stud_Details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>jesuraja@gmail.com</t>
+  </si>
+  <si>
+    <t>Salman Khan</t>
+  </si>
+  <si>
+    <t>Saif Ali Khan</t>
+  </si>
+  <si>
+    <t>Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>1MS16ME045</t>
+  </si>
+  <si>
+    <t>1MS16ME046</t>
+  </si>
+  <si>
+    <t>1MS16ME047</t>
+  </si>
+  <si>
+    <t>jesuraja1@gmail.com</t>
+  </si>
+  <si>
+    <t>jesuraja2@gmail.com</t>
+  </si>
+  <si>
+    <t>jesuraja3@gmail.com</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>KHAN Uncle</t>
+  </si>
+  <si>
+    <t>KHAN Aunty</t>
   </si>
 </sst>
 </file>
@@ -478,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +712,84 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>987654321</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>987654321</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>987654321</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -684,8 +798,12 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8:D10" r:id="rId7" display="jesuraja@gmail.com"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Stud_Details.xlsx
+++ b/Stud_Details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -80,18 +80,6 @@
     <t>Abhishek S</t>
   </si>
   <si>
-    <t>Mridul Tiwary</t>
-  </si>
-  <si>
-    <t>Jesuraja Bandekar</t>
-  </si>
-  <si>
-    <t>1MS16EC044</t>
-  </si>
-  <si>
-    <t>1MS16CS058</t>
-  </si>
-  <si>
     <t>1MS16CS044</t>
   </si>
   <si>
@@ -101,33 +89,18 @@
     <t>K Sidhartha Nambiar</t>
   </si>
   <si>
-    <t>ECE</t>
-  </si>
-  <si>
     <t>Surendran Nambiar</t>
   </si>
   <si>
     <t>Surendran S</t>
   </si>
   <si>
-    <t>Abhish Tiwary</t>
-  </si>
-  <si>
-    <t>Bandekar Aunty</t>
-  </si>
-  <si>
     <t>Father's Name</t>
   </si>
   <si>
     <t>Mother's Name</t>
   </si>
   <si>
-    <t>Bandekar Uncle</t>
-  </si>
-  <si>
-    <t>Abhisha Tiwary</t>
-  </si>
-  <si>
     <t>Surendra S</t>
   </si>
   <si>
@@ -135,48 +108,6 @@
   </si>
   <si>
     <t>abhsiehkman.s@gmail.com</t>
-  </si>
-  <si>
-    <t>tiwary.mridul@gmail.com</t>
-  </si>
-  <si>
-    <t>jesuraja@gmail.com</t>
-  </si>
-  <si>
-    <t>Salman Khan</t>
-  </si>
-  <si>
-    <t>Saif Ali Khan</t>
-  </si>
-  <si>
-    <t>Shahrukh Khan</t>
-  </si>
-  <si>
-    <t>1MS16ME045</t>
-  </si>
-  <si>
-    <t>1MS16ME046</t>
-  </si>
-  <si>
-    <t>1MS16ME047</t>
-  </si>
-  <si>
-    <t>jesuraja1@gmail.com</t>
-  </si>
-  <si>
-    <t>jesuraja2@gmail.com</t>
-  </si>
-  <si>
-    <t>jesuraja3@gmail.com</t>
-  </si>
-  <si>
-    <t>MECH</t>
-  </si>
-  <si>
-    <t>KHAN Uncle</t>
-  </si>
-  <si>
-    <t>KHAN Aunty</t>
   </si>
 </sst>
 </file>
@@ -517,7 +448,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -610,16 +541,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1234567890</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -628,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,13 +570,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>6789012345</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -654,141 +585,26 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>9740929890</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>987654321</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>987654321</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9">
-        <v>987654321</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
-        <v>987654321</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -796,14 +612,9 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8:D10" r:id="rId7" display="jesuraja@gmail.com"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D9" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D8:D10" r:id="rId5" display="jesuraja@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>